--- a/data/extracted_data/raw_round2/data/Horner_etal_1993_Table1.xlsx
+++ b/data/extracted_data/raw_round2/data/Horner_etal_1993_Table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F87E28E5-0097-D24D-A408-58B52FB4419B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B94B90D-E3BB-634E-8426-2FB5B91E97CE}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F87E28E5-0097-D24D-A408-58B52FB4419B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27EC3803-FB4A-6545-BDDA-0BE4D7C5CA53}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{2186E0BA-6651-0340-856B-7132DBB1C69C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{2186E0BA-6651-0340-856B-7132DBB1C69C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
   <si>
     <t>treatment</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Depuration</t>
+  </si>
+  <si>
+    <t>Uptake</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -525,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -539,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>35</v>
